--- a/QuanLyChiPhi/MauBaoCao/MauPhieuThu.xlsx
+++ b/QuanLyChiPhi/MauBaoCao/MauPhieuThu.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Test/CTHL/QuanLyChiPhi/MauBaoCao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C6530B-DB9F-6041-99D9-3BBA46D0D185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704B17DB-11E1-5547-A728-E3B145308227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40680" yWindow="12400" windowWidth="25740" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40140" yWindow="6540" windowWidth="25740" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu mẫu" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="DPTC" localSheetId="0">'Phiếu mẫu'!$M$8</definedName>
     <definedName name="SoChungTu">#REF!</definedName>
@@ -117,7 +115,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Ngày &quot;dd&quot; Tháng &quot;mm&quot; Năm &quot;yyyy"/>
-    <numFmt numFmtId="166" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -306,12 +304,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -332,16 +324,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -366,13 +349,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -382,9 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +374,30 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,47 +408,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_NhatKy0403" xfId="2" xr:uid="{0B7EAB5D-D06B-1F40-86F8-0589DA21727C}"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="0"/>
@@ -486,21 +444,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PT"/>
-      <sheetName val="PT KH"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -806,7 +749,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -824,53 +767,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="20">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
@@ -878,146 +821,146 @@
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17">
+      <c r="B10" s="12"/>
+      <c r="C10" s="38">
         <f>L1</f>
         <v>0</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="18" t="str">
+      <c r="B11" s="10"/>
+      <c r="C11" s="13" t="str">
         <f>"("&amp;DPTC&amp;")"</f>
         <v>()</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23" t="str">
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18" t="str">
         <f>IF($I$1="","",VLOOKUP($I$1,#REF!,6,0))</f>
         <v/>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="34" t="s">
+      <c r="H14" s="34"/>
+      <c r="I14" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1025,72 +968,72 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="31" t="str">
+      <c r="A20" s="24" t="str">
         <f>C11</f>
         <v>()</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9">
       <c r="D21" s="1"/>
@@ -1109,6 +1052,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
@@ -1118,17 +1069,9 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>TYPE(#REF!)=16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1150,4 +1093,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8728FDF5-2E95-2549-AE4D-386CD20B6501}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QuanLyChiPhi/MauBaoCao/MauPhieuThu.xlsx
+++ b/QuanLyChiPhi/MauBaoCao/MauPhieuThu.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Test/CTHL/QuanLyChiPhi/MauBaoCao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\tic\QuanLyChiPhi\MauBaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704B17DB-11E1-5547-A728-E3B145308227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D0A30-2F0A-400D-8439-B2CCB3045002}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40140" yWindow="6540" windowWidth="25740" windowHeight="8600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40140" yWindow="6540" windowWidth="25740" windowHeight="8595" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phiếu mẫu" sheetId="5" r:id="rId1"/>
+    <sheet name="Phiếu mẫu" sheetId="5" state="hidden" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -25,22 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Mẫu số: 01 - TT</t>
   </si>
@@ -113,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;Ngày &quot;dd&quot; Tháng &quot;mm&quot; Năm &quot;yyyy"/>
-    <numFmt numFmtId="165" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;Ngày &quot;dd&quot; Tháng &quot;mm&quot; Năm &quot;yyyy"/>
+    <numFmt numFmtId="166" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -290,10 +280,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,29 +317,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -375,6 +347,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed"/>
     </xf>
@@ -384,14 +380,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +399,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -408,15 +410,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_NhatKy0403" xfId="2" xr:uid="{0B7EAB5D-D06B-1F40-86F8-0589DA21727C}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -746,80 +740,80 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="40" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="40" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" spans="1:9" ht="20">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="41" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="3"/>
       <c r="H4" s="6" t="s">
         <v>4</v>
@@ -828,12 +822,12 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
@@ -881,61 +875,62 @@
         <v>8</v>
       </c>
       <c r="B9" s="10"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="38">
-        <f>L1</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="13" t="str">
-        <f>"("&amp;DPTC&amp;")"</f>
-        <v>()</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18" t="str">
+      <c r="E12" s="27"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="27" t="str">
         <f>IF($I$1="","",VLOOKUP($I$1,#REF!,6,0))</f>
         <v/>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="21"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -960,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1006,7 +1001,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="33" t="s">
@@ -1014,52 +1009,360 @@
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="24" t="str">
+      <c r="A20" s="16">
         <f>C11</f>
-        <v>()</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="D21" s="1"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="D22" s="1"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="D23" s="1"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="D24" s="1"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="D25" s="1"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="26"/>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="27" t="str">
+        <f>IF($I$1="","",VLOOKUP($I$1,#REF!,6,0))</f>
+        <v/>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="11"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="34"/>
+      <c r="I41" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="16">
+        <f>C38</f>
+        <v>0</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:F4"/>
+  <mergeCells count="38">
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
@@ -1069,29 +1372,53 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>TYPE(#REF!)=16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>TYPE(#REF!)=16</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E12 G12 C10">
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6" xr:uid="{6F9D6B96-1F17-CD4F-AD17-1385F543BF4A}">
+  <conditionalFormatting sqref="E39 G39 C37">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6 I31:I33" xr:uid="{6F9D6B96-1F17-CD4F-AD17-1385F543BF4A}">
       <formula1>SoChungTu</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1099,9 +1426,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8728FDF5-2E95-2549-AE4D-386CD20B6501}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
